--- a/计划/对接内容.xlsx
+++ b/计划/对接内容.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gmg\Mange\SRG-ERP\计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA1B30-DC72-4E36-91CA-48F078A2B184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D235F33A-1FAD-4870-96D7-E15F1D32BD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>设备名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,19 @@
   </si>
   <si>
     <t>http://www.sdses.com/statics/htmls/SS628-100-description.html</t>
+  </si>
+  <si>
+    <t>iBeacon</t>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWB定位</t>
+  </si>
+  <si>
+    <t>http://www.seekcy.com/taizhundingweixitong/</t>
   </si>
 </sst>
 </file>
@@ -551,7 +564,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,11 +675,19 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>

--- a/计划/对接内容.xlsx
+++ b/计划/对接内容.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gmg\Mange\SRG-ERP\计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D235F33A-1FAD-4870-96D7-E15F1D32BD06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA6E29-EC7D-49C0-A4A9-D1E3C0229BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,13 +168,14 @@
   </si>
   <si>
     <t>http://www.seekcy.com/taizhundingweixitong/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +203,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,10 +258,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -281,9 +291,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,7 +578,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,7 +699,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -766,7 +780,10 @@
     <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{DEBCDA4C-FB60-4F97-B7F0-1FEE4230CE2A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="128" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="128" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>